--- a/biology/Médecine/Emma_Gaudreau/Emma_Gaudreau.xlsx
+++ b/biology/Médecine/Emma_Gaudreau/Emma_Gaudreau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emma Gaudreau Casgrain (1861-1934) est la première femme à avoir exercé la profession de dentiste au Canada.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emma Marie Wilhelmine Gaudreau naît le 2 juin 1861 à Montmagny au Québec. Fille de Jean-Baptiste Gaudreau, un cultivateur, et de Marie-Caroline Létourneau, Emma est la troisième d'une famille de cinq enfants avec trois frères et une sœur. Elle étudie au couvent des Ursulines de Québec avant de rencontrer Henri-Edmond Casgrain, de 15 ans plus âgé, qu'elle épousera à 18 ans, le 16 octobre 1879 à Montmagny. Le couple n'aura pas d'enfants. Avec son mari, qui est dentiste de profession, ils décident d'aller habiter Québec. C'est auprès de son époux qu'elle acquiert les connaissances et techniques nécessaires à l'accession de sa future profession. Après l'obtention de son diplôme du Collège des dentistes du Québec et de sa licence qui l'autorise à pratiquer cette profession, elle devient, en 1898, la première femme au Canada à être admise à la pratique de la dentisterie, qu'elle exerça avec son mari à Québec dans leur bureau de la rue Saint-Jean de 1898 à 1920. Ils eurent comme voisin l’horloger et bijoutier Cyrille Duquet. Elle habitera plus tard au 180 de la rue Aberdeen, aujourd'hui dans l'arrondissement de La Cité-Limoilou. Une plaque commémorative a été installée à cet endroit pour lui rendre hommage. Elle décède le 7 octobre 1934, âgée de 73 ans, dans la paroisse Saint-Dominique, à Québec. Elle sera inhumée trois jours plus tard dans le cimetière Notre-Dame-de-Belmont[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emma Marie Wilhelmine Gaudreau naît le 2 juin 1861 à Montmagny au Québec. Fille de Jean-Baptiste Gaudreau, un cultivateur, et de Marie-Caroline Létourneau, Emma est la troisième d'une famille de cinq enfants avec trois frères et une sœur. Elle étudie au couvent des Ursulines de Québec avant de rencontrer Henri-Edmond Casgrain, de 15 ans plus âgé, qu'elle épousera à 18 ans, le 16 octobre 1879 à Montmagny. Le couple n'aura pas d'enfants. Avec son mari, qui est dentiste de profession, ils décident d'aller habiter Québec. C'est auprès de son époux qu'elle acquiert les connaissances et techniques nécessaires à l'accession de sa future profession. Après l'obtention de son diplôme du Collège des dentistes du Québec et de sa licence qui l'autorise à pratiquer cette profession, elle devient, en 1898, la première femme au Canada à être admise à la pratique de la dentisterie, qu'elle exerça avec son mari à Québec dans leur bureau de la rue Saint-Jean de 1898 à 1920. Ils eurent comme voisin l’horloger et bijoutier Cyrille Duquet. Elle habitera plus tard au 180 de la rue Aberdeen, aujourd'hui dans l'arrondissement de La Cité-Limoilou. Une plaque commémorative a été installée à cet endroit pour lui rendre hommage. Elle décède le 7 octobre 1934, âgée de 73 ans, dans la paroisse Saint-Dominique, à Québec. Elle sera inhumée trois jours plus tard dans le cimetière Notre-Dame-de-Belmont.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le domaine de la littérature, Emma Gaudreau a inspiré le personnage d'un roman historique de Sylvie Gobeil intitulé De tendres aspirations[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le domaine de la littérature, Emma Gaudreau a inspiré le personnage d'un roman historique de Sylvie Gobeil intitulé De tendres aspirations.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Une plaque "Ici vécut de la ville de Québec est présente au 180 rue Aberdeen, en son honneur, pour indiquer son ancien lieu de résidence.</t>
         </is>
